--- a/data/trans_orig/P42-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P42-Dificultad-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>735627</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>711055</v>
+        <v>710611</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>758167</v>
+        <v>758172</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7987153055965992</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7720355520968608</v>
+        <v>0.7715540398668793</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8231885726310152</v>
+        <v>0.8231935615303978</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>185386</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>162846</v>
+        <v>162841</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>209958</v>
+        <v>210402</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2012846944034007</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1768114273689848</v>
+        <v>0.1768064384696022</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2279644479031392</v>
+        <v>0.2284459601331207</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>823073</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>795107</v>
+        <v>796660</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>849112</v>
+        <v>848269</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7804488764709412</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7539310875672043</v>
+        <v>0.7554040376760259</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8051392071992267</v>
+        <v>0.804339777710108</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>231542</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>205503</v>
+        <v>206346</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>259508</v>
+        <v>257955</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2195511235290589</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1948607928007733</v>
+        <v>0.1956602222898919</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2460689124327957</v>
+        <v>0.244595962323974</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>772738</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>745362</v>
+        <v>746603</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>797343</v>
+        <v>797756</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7834068679785048</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7556529807845338</v>
+        <v>0.756911835831433</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.808351821233786</v>
+        <v>0.8087704790951808</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>213643</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>189038</v>
+        <v>188625</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>241019</v>
+        <v>239778</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2165931320214953</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1916481787662142</v>
+        <v>0.1912295209048192</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2443470192154662</v>
+        <v>0.2430881641685671</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>283740</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>268233</v>
+        <v>270287</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>295018</v>
+        <v>296228</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8369184808247793</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7911789749498637</v>
+        <v>0.7972398353940185</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8701846334801924</v>
+        <v>0.8737539374701701</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>55289</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>44011</v>
+        <v>42801</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>70796</v>
+        <v>68742</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1630815191752207</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1298153665198082</v>
+        <v>0.1262460625298299</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2088210250501366</v>
+        <v>0.2027601646059813</v>
       </c>
     </row>
     <row r="15">
@@ -988,19 +988,19 @@
         <v>2615177</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2563669</v>
+        <v>2569391</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2660121</v>
+        <v>2660480</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.792228852012432</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7766253481272347</v>
+        <v>0.7783587010630713</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8058441800279357</v>
+        <v>0.805952655207371</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1017,19 @@
         <v>685860</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>640916</v>
+        <v>640557</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>737368</v>
+        <v>731646</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.207771147987568</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1941558199720643</v>
+        <v>0.194047344792629</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2233746518727653</v>
+        <v>0.2216412989369289</v>
       </c>
     </row>
     <row r="18">
@@ -1197,19 +1197,19 @@
         <v>983794</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>959088</v>
+        <v>957011</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1003472</v>
+        <v>1004127</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8843994371058739</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8621894680353055</v>
+        <v>0.8603215591253791</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9020892365068856</v>
+        <v>0.9026780922024099</v>
       </c>
     </row>
     <row r="5">
@@ -1226,19 +1226,19 @@
         <v>128593</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>108915</v>
+        <v>108260</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>153299</v>
+        <v>155376</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1156005628941261</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09791076349311434</v>
+        <v>0.09732190779759008</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1378105319646944</v>
+        <v>0.1396784408746209</v>
       </c>
     </row>
     <row r="6">
@@ -1288,19 +1288,19 @@
         <v>928718</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>905382</v>
+        <v>905394</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>951516</v>
+        <v>951216</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8562688265417819</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8347533718294645</v>
+        <v>0.8347646767466114</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8772884821214185</v>
+        <v>0.8770116331840709</v>
       </c>
     </row>
     <row r="8">
@@ -1317,19 +1317,19 @@
         <v>155892</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>133094</v>
+        <v>133394</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>179228</v>
+        <v>179216</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1437311734582181</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1227115178785813</v>
+        <v>0.1229883668159289</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1652466281705353</v>
+        <v>0.1652353232533886</v>
       </c>
     </row>
     <row r="9">
@@ -1379,19 +1379,19 @@
         <v>763757</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>742530</v>
+        <v>743355</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>781360</v>
+        <v>781421</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8739751110221192</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8496847069739996</v>
+        <v>0.8506285821676656</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8941186836294072</v>
+        <v>0.8941874213394549</v>
       </c>
     </row>
     <row r="11">
@@ -1408,19 +1408,19 @@
         <v>110132</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>92529</v>
+        <v>92468</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>131359</v>
+        <v>130534</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1260248889778807</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1058813163705921</v>
+        <v>0.1058125786605444</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1503152930259992</v>
+        <v>0.1493714178323335</v>
       </c>
     </row>
     <row r="12">
@@ -1470,19 +1470,19 @@
         <v>391343</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>374963</v>
+        <v>376198</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>404824</v>
+        <v>405741</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8682629408643534</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8319202069753401</v>
+        <v>0.8346597115071466</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8981708958006612</v>
+        <v>0.9002053783449987</v>
       </c>
     </row>
     <row r="14">
@@ -1499,19 +1499,19 @@
         <v>59377</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>45896</v>
+        <v>44979</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>75757</v>
+        <v>74522</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1317370591356466</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1018291041993385</v>
+        <v>0.09979462165500114</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1680797930246597</v>
+        <v>0.1653402884928534</v>
       </c>
     </row>
     <row r="15">
@@ -1561,19 +1561,19 @@
         <v>3067613</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3025244</v>
+        <v>3024611</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3106633</v>
+        <v>3104695</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8710834969862866</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8590524346808452</v>
+        <v>0.8588724978585903</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8821636749329667</v>
+        <v>0.8816135191847779</v>
       </c>
     </row>
     <row r="17">
@@ -1590,19 +1590,19 @@
         <v>453993</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>414973</v>
+        <v>416911</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>496362</v>
+        <v>496995</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1289165030137134</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1178363250670333</v>
+        <v>0.1183864808152221</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1409475653191548</v>
+        <v>0.1411275021414097</v>
       </c>
     </row>
     <row r="18">
@@ -1770,19 +1770,19 @@
         <v>1091541</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1067999</v>
+        <v>1065968</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1115583</v>
+        <v>1113621</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8723829243985678</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8535677739961092</v>
+        <v>0.8519446130349976</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8915973267313702</v>
+        <v>0.8900293032926101</v>
       </c>
     </row>
     <row r="5">
@@ -1799,19 +1799,19 @@
         <v>159677</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>135635</v>
+        <v>137597</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>183219</v>
+        <v>185250</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1276170756014322</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1084026732686299</v>
+        <v>0.10997069670739</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1464322260038908</v>
+        <v>0.1480553869650023</v>
       </c>
     </row>
     <row r="6">
@@ -1861,19 +1861,19 @@
         <v>875998</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>855162</v>
+        <v>853696</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>895973</v>
+        <v>895958</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8758939669086063</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.855060155735445</v>
+        <v>0.8535944505399644</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8958661084309953</v>
+        <v>0.8958515815632808</v>
       </c>
     </row>
     <row r="8">
@@ -1890,19 +1890,19 @@
         <v>124121</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>104146</v>
+        <v>104161</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>144957</v>
+        <v>146423</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1241060330913937</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1041338915690048</v>
+        <v>0.1041484184367192</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1449398442645553</v>
+        <v>0.1464055494600357</v>
       </c>
     </row>
     <row r="9">
@@ -1952,19 +1952,19 @@
         <v>659591</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>638705</v>
+        <v>639142</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>677883</v>
+        <v>677733</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8628584479336672</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8355355945744189</v>
+        <v>0.8361067940108801</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8867873268385785</v>
+        <v>0.8865902385668953</v>
       </c>
     </row>
     <row r="11">
@@ -1981,19 +1981,19 @@
         <v>104835</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>86543</v>
+        <v>86693</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>125721</v>
+        <v>125284</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1371415520663329</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1132126731614215</v>
+        <v>0.1134097614331046</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1644644054255812</v>
+        <v>0.1638932059891196</v>
       </c>
     </row>
     <row r="12">
@@ -2043,19 +2043,19 @@
         <v>423501</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>406815</v>
+        <v>407974</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>436210</v>
+        <v>435998</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8757574594930838</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8412540200767699</v>
+        <v>0.8436491367653817</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9020402820885559</v>
+        <v>0.9016002243821545</v>
       </c>
     </row>
     <row r="14">
@@ -2072,19 +2072,19 @@
         <v>60081</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>47372</v>
+        <v>47584</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>76767</v>
+        <v>75608</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1242425405069161</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09795971791144416</v>
+        <v>0.09839977561784553</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1587459799232301</v>
+        <v>0.1563508632346183</v>
       </c>
     </row>
     <row r="15">
@@ -2134,19 +2134,19 @@
         <v>3050631</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3010375</v>
+        <v>3012214</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3088935</v>
+        <v>3088516</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8717721143164734</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8602682371955039</v>
+        <v>0.8607937823932361</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8827181878595467</v>
+        <v>0.8825982504833436</v>
       </c>
     </row>
     <row r="17">
@@ -2163,19 +2163,19 @@
         <v>448714</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>410410</v>
+        <v>410829</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>488970</v>
+        <v>487131</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1282278856835266</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1172818121404532</v>
+        <v>0.1174017495166565</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.139731762804496</v>
+        <v>0.1392062176067642</v>
       </c>
     </row>
     <row r="18">
@@ -2343,19 +2343,19 @@
         <v>421396</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>400103</v>
+        <v>402927</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>439304</v>
+        <v>437824</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8142088070420547</v>
+        <v>0.8142088070420546</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7730672364330551</v>
+        <v>0.778523006298661</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8488095003119741</v>
+        <v>0.8459498065103138</v>
       </c>
     </row>
     <row r="5">
@@ -2372,19 +2372,19 @@
         <v>96157</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>78249</v>
+        <v>79729</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>117450</v>
+        <v>114626</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1857911929579454</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.151190499688026</v>
+        <v>0.1540501934896863</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.226932763566945</v>
+        <v>0.2214769937013392</v>
       </c>
     </row>
     <row r="6">
@@ -2434,19 +2434,19 @@
         <v>699964</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>678077</v>
+        <v>676646</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>724574</v>
+        <v>720656</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.824411068293664</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7986332947796961</v>
+        <v>0.79694728952476</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8533966573826647</v>
+        <v>0.8487819085947477</v>
       </c>
     </row>
     <row r="8">
@@ -2463,19 +2463,19 @@
         <v>149083</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>124473</v>
+        <v>128391</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>170970</v>
+        <v>172401</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.175588931706336</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1466033426173353</v>
+        <v>0.1512180914052523</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2013667052203034</v>
+        <v>0.2030527104752397</v>
       </c>
     </row>
     <row r="9">
@@ -2525,19 +2525,19 @@
         <v>631027</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>611570</v>
+        <v>606152</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>651046</v>
+        <v>649529</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8323166053823285</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8066532658022371</v>
+        <v>0.7995078479410481</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8587214548496611</v>
+        <v>0.8567203640244739</v>
       </c>
     </row>
     <row r="11">
@@ -2554,19 +2554,19 @@
         <v>127130</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>107111</v>
+        <v>108628</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>146587</v>
+        <v>152005</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1676833946176714</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1412785451503391</v>
+        <v>0.1432796359755261</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.193346734197763</v>
+        <v>0.2004921520589519</v>
       </c>
     </row>
     <row r="12">
@@ -2616,19 +2616,19 @@
         <v>566583</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>545676</v>
+        <v>547778</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>584165</v>
+        <v>584414</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8736642291411655</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8414245554474515</v>
+        <v>0.844665674622215</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9007742953676067</v>
+        <v>0.901158635631323</v>
       </c>
     </row>
     <row r="14">
@@ -2645,19 +2645,19 @@
         <v>81931</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>64349</v>
+        <v>64100</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>102838</v>
+        <v>100736</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1263357708588345</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09922570463239334</v>
+        <v>0.09884136436867698</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1585754445525486</v>
+        <v>0.155334325377785</v>
       </c>
     </row>
     <row r="15">
@@ -2707,19 +2707,19 @@
         <v>2318971</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2274968</v>
+        <v>2278893</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2358655</v>
+        <v>2358055</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8361858971923509</v>
+        <v>0.8361858971923511</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8203192276621042</v>
+        <v>0.8217344473908728</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.850495315951337</v>
+        <v>0.8502790265976435</v>
       </c>
     </row>
     <row r="17">
@@ -2736,19 +2736,19 @@
         <v>454301</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>414617</v>
+        <v>415217</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>498304</v>
+        <v>494379</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1638141028076489</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1495046840486631</v>
+        <v>0.1497209734023566</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1796807723378957</v>
+        <v>0.1782655526091271</v>
       </c>
     </row>
     <row r="18">
